--- a/www/temp_files/duplicity.xlsx
+++ b/www/temp_files/duplicity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Řádek, chyba</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Skupina zboží</t>
   </si>
   <si>
-    <t>Zatřídění</t>
-  </si>
-  <si>
     <t>Prodejní cena bez DPH</t>
   </si>
   <si>
@@ -50,27 +47,9 @@
     <t>Výrobce</t>
   </si>
   <si>
-    <t>Export na eshop</t>
-  </si>
-  <si>
-    <t>Nomenklatura</t>
-  </si>
-  <si>
-    <t>Evidovat Interstat</t>
-  </si>
-  <si>
-    <t>Hmotnost (netto)</t>
-  </si>
-  <si>
-    <t>MJ hmotnosti</t>
-  </si>
-  <si>
     <t>Firma</t>
   </si>
   <si>
-    <t>Primární</t>
-  </si>
-  <si>
     <t>Nákupní cena</t>
   </si>
   <si>
@@ -80,12 +59,6 @@
     <t>Prodejní cena</t>
   </si>
   <si>
-    <t>Prodejní cena pro skupinu</t>
-  </si>
-  <si>
-    <t>Ceníková skupina</t>
-  </si>
-  <si>
     <t>C0</t>
   </si>
   <si>
@@ -98,9 +71,6 @@
     <t>C3</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
@@ -116,27 +86,9 @@
     <t>C19</t>
   </si>
   <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>C23</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
@@ -149,15 +101,6 @@
     <t>E2</t>
   </si>
   <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
     <t>cenik</t>
   </si>
   <si>
@@ -176,9 +119,6 @@
     <t>skupZboz</t>
   </si>
   <si>
-    <t>zatrid</t>
-  </si>
-  <si>
     <t>cenaZakl</t>
   </si>
   <si>
@@ -194,24 +134,9 @@
     <t>vyrobce</t>
   </si>
   <si>
-    <t>exportNaEshop</t>
-  </si>
-  <si>
-    <t>inEvid</t>
-  </si>
-  <si>
-    <t>hmotMj</t>
-  </si>
-  <si>
-    <t>mjHmot</t>
-  </si>
-  <si>
     <t>firma</t>
   </si>
   <si>
-    <t>primarni</t>
-  </si>
-  <si>
     <t>nakupCena</t>
   </si>
   <si>
@@ -221,9 +146,6 @@
     <t>prodejCena</t>
   </si>
   <si>
-    <t>skupCen</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -242,60 +164,32 @@
     <t>výběr z hodnot</t>
   </si>
   <si>
-    <t>prefix kódu
-jedinečný pro každého výrobce</t>
-  </si>
-  <si>
-    <t>jedinečný kód produktu
-zde nesmějí být duplicity!</t>
-  </si>
-  <si>
     <t>Popis</t>
   </si>
   <si>
-    <t>skupina zboží do které chceme položku zahrnout</t>
-  </si>
-  <si>
-    <t>strana k katalogu kde je tento konkrétní výrobek</t>
-  </si>
-  <si>
-    <t>ceníková prodejní cena (je vždy v CZK)</t>
-  </si>
-  <si>
-    <t>informace o dostupnosti položky pomocí založených štítků</t>
-  </si>
-  <si>
-    <t>ano chceme aby položky byly skladovým zbožím, jinak je nelze dát do nabídky</t>
-  </si>
-  <si>
-    <t>zboží
-materiál
-nedokončená výroba
-polotovar
-výrobek
-zvíře
-služba
-poplatek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zobrazit položku v eshopu? </t>
-  </si>
-  <si>
-    <t>číslo pro instrastat</t>
-  </si>
-  <si>
-    <t>neboli dodavatel pro Flexi Bee</t>
-  </si>
-  <si>
-    <t>taje bud v CZK nebo v EUR, ale je vždy jen jedna. Prostě bud nakupujeme v CZK nebo v EUR</t>
-  </si>
-  <si>
-    <t>obecná prodejní cena v EUR
-pokud se bude jednat českého výrobce, budou zde prázdné řádky</t>
-  </si>
-  <si>
-    <t>obecná prodejní cena v EUR pro slovensko
-toto řešíme pouze v PROLICHTU</t>
+    <t>skupina zboží</t>
+  </si>
+  <si>
+    <t>ceníková cena CZK (nákup EUR * 28 * 3 * 1,1)</t>
+  </si>
+  <si>
+    <t>štítek (dostupnost)</t>
+  </si>
+  <si>
+    <t>skladové zboží</t>
+  </si>
+  <si>
+    <t>typ zásoby</t>
+  </si>
+  <si>
+    <t>výrobce</t>
+  </si>
+  <si>
+    <t>nákupní cena EUR
+(ceník EUR - 45%, - 20%)</t>
+  </si>
+  <si>
+    <t>prodejní cena EUR BOOBA (nákup EUR * 3 * 1,1)</t>
   </si>
 </sst>
 </file>
@@ -631,7 +525,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,7 +533,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -653,416 +547,250 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M1" t="s">
         <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>22</v>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:15">
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="B4" t="s">
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="M6" t="s">
         <v>53</v>
       </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="N6" t="s">
         <v>57</v>
       </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U4" t="s">
-        <v>64</v>
-      </c>
-      <c r="W4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5" t="s">
-        <v>71</v>
-      </c>
-      <c r="X5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" t="s">
-        <v>82</v>
-      </c>
-      <c r="R6" t="s">
-        <v>87</v>
-      </c>
-      <c r="S6"/>
-      <c r="T6" t="s">
-        <v>86</v>
-      </c>
-      <c r="U6"/>
-      <c r="W6" t="s">
-        <v>88</v>
-      </c>
-      <c r="X6"/>
-      <c r="Z6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA6"/>
-      <c r="AB6"/>
+      <c r="O6"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/www/temp_files/duplicity.xlsx
+++ b/www/temp_files/duplicity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>Řádek, chyba</t>
   </si>
@@ -35,36 +35,36 @@
     <t>Zatřídění</t>
   </si>
   <si>
+    <t>Prodejní cena bez DPH</t>
+  </si>
+  <si>
+    <t>Štítky</t>
+  </si>
+  <si>
+    <t>Skladové</t>
+  </si>
+  <si>
+    <t>Typ zásoby</t>
+  </si>
+  <si>
+    <t>Výrobce</t>
+  </si>
+  <si>
+    <t>Export na eshop</t>
+  </si>
+  <si>
+    <t>Nomenklatura</t>
+  </si>
+  <si>
+    <t>Evidovat Interstat</t>
+  </si>
+  <si>
+    <t>Hmotnost (netto)</t>
+  </si>
+  <si>
     <t>MJ hmotnosti</t>
   </si>
   <si>
-    <t>Prodejní cena bez DPH</t>
-  </si>
-  <si>
-    <t>Štítky</t>
-  </si>
-  <si>
-    <t>Skladové</t>
-  </si>
-  <si>
-    <t>Typ zásoby</t>
-  </si>
-  <si>
-    <t>Výrobce</t>
-  </si>
-  <si>
-    <t>Export na eshop</t>
-  </si>
-  <si>
-    <t>Nomenklatura</t>
-  </si>
-  <si>
-    <t>Evidovat Interstat</t>
-  </si>
-  <si>
-    <t>Hmotnost (netto)</t>
-  </si>
-  <si>
     <t>Firma</t>
   </si>
   <si>
@@ -101,9 +101,6 @@
     <t>C4</t>
   </si>
   <si>
-    <t>C7</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
     <t>C23</t>
   </si>
   <si>
+    <t>C24</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -179,9 +179,6 @@
     <t>zatrid</t>
   </si>
   <si>
-    <t>mj1</t>
-  </si>
-  <si>
     <t>cenaZakl</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
     <t>hmotMj</t>
   </si>
   <si>
+    <t>mjHmot</t>
+  </si>
+  <si>
     <t>firma</t>
   </si>
   <si>
@@ -230,88 +230,72 @@
     <t>relation</t>
   </si>
   <si>
+    <t>desetinné číslo</t>
+  </si>
+  <si>
     <t>vazba</t>
   </si>
   <si>
-    <t>desetinné číslo</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
     <t>výběr z hodnot</t>
   </si>
   <si>
-    <t>omezení na 20 znaků</t>
-  </si>
-  <si>
-    <t>zkratka měrné jednotky (Nástroje &gt; Číselníky &gt; Měrné jednotky)</t>
-  </si>
-  <si>
-    <t>typZasoby.vyrobek
-typZasoby.zbozi
-typZasoby.material
-typZasoby.sluzba</t>
-  </si>
-  <si>
-    <t>zkratka firmy (Obchodní partneři &gt; Adresy firem)</t>
-  </si>
-  <si>
-    <t>kód nomeklatury (Nástroje &gt; Číselníky &gt; Interstat &gt; Kódy nomenklatury)</t>
-  </si>
-  <si>
-    <t>9, duplicita se řádkem 7</t>
-  </si>
-  <si>
-    <t>PL-</t>
-  </si>
-  <si>
-    <t>JC0</t>
-  </si>
-  <si>
-    <t>CENTRIQ 83 ADJUST REC SP Ø120x105 LED</t>
-  </si>
-  <si>
-    <t>ZBOŽÍ</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>NA DOTAZ</t>
-  </si>
-  <si>
-    <t>typZasoby.zbozi</t>
-  </si>
-  <si>
-    <t>PROLICHT AT</t>
-  </si>
-  <si>
-    <t>ANO</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>10, duplicita se řádkem 8</t>
-  </si>
-  <si>
-    <t>JC1</t>
-  </si>
-  <si>
-    <t>12, duplicita se řádkem 11</t>
-  </si>
-  <si>
-    <t>JC2</t>
-  </si>
-  <si>
-    <t>13, duplicita se řádkem 11</t>
+    <t>prefix kódu
+jedinečný pro každého výrobce</t>
+  </si>
+  <si>
+    <t>jedinečný kód produktu
+zde nesmějí být duplicity!</t>
+  </si>
+  <si>
+    <t>Popis</t>
+  </si>
+  <si>
+    <t>skupina zboží do které chceme položku zahrnout</t>
+  </si>
+  <si>
+    <t>strana k katalogu kde je tento konkrétní výrobek</t>
+  </si>
+  <si>
+    <t>ceníková prodejní cena (je vždy v CZK)</t>
+  </si>
+  <si>
+    <t>informace o dostupnosti položky pomocí založených štítků</t>
+  </si>
+  <si>
+    <t>ano chceme aby položky byly skladovým zbožím, jinak je nelze dát do nabídky</t>
+  </si>
+  <si>
+    <t>zboží
+materiál
+nedokončená výroba
+polotovar
+výrobek
+zvíře
+služba
+poplatek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zobrazit položku v eshopu? </t>
+  </si>
+  <si>
+    <t>číslo pro instrastat</t>
+  </si>
+  <si>
+    <t>neboli dodavatel pro Flexi Bee</t>
+  </si>
+  <si>
+    <t>taje bud v CZK nebo v EUR, ale je vždy jen jedna. Prostě bud nakupujeme v CZK nebo v EUR</t>
+  </si>
+  <si>
+    <t>obecná prodejní cena v EUR
+pokud se bude jednat českého výrobce, budou zde prázdné řádky</t>
+  </si>
+  <si>
+    <t>obecná prodejní cena v EUR pro slovensko
+toto řešíme pouze v PROLICHTU</t>
   </si>
 </sst>
 </file>
@@ -647,7 +631,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,40 +653,40 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
       <c r="M1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O1" t="s">
         <v>4</v>
       </c>
       <c r="P1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R1" t="s">
         <v>18</v>
@@ -743,40 +727,40 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
       <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
         <v>40</v>
@@ -891,40 +875,40 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
       </c>
       <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
         <v>60</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>61</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>62</v>
       </c>
-      <c r="L4" t="s">
-        <v>54</v>
-      </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
         <v>52</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R4" t="s">
         <v>65</v>
@@ -965,7 +949,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
         <v>70</v>
@@ -983,13 +967,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s">
         <v>74</v>
@@ -1000,12 +984,8 @@
       <c r="P5" t="s">
         <v>73</v>
       </c>
-      <c r="R5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S5" t="s">
-        <v>70</v>
-      </c>
+      <c r="R5"/>
+      <c r="S5"/>
       <c r="T5" t="s">
         <v>70</v>
       </c>
@@ -1013,13 +993,13 @@
         <v>73</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s">
         <v>70</v>
       </c>
       <c r="Z5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s">
         <v>70</v>
@@ -1033,354 +1013,56 @@
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6"/>
+      <c r="L6"/>
+      <c r="M6" t="s">
+        <v>81</v>
+      </c>
       <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="R6"/>
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" t="s">
+        <v>87</v>
+      </c>
       <c r="S6"/>
       <c r="T6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="U6"/>
-      <c r="W6"/>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
       <c r="X6"/>
-      <c r="Z6"/>
+      <c r="Z6" t="s">
+        <v>89</v>
+      </c>
       <c r="AA6"/>
       <c r="AB6"/>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7">
-        <v>5217</v>
-      </c>
-      <c r="F7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>94051098</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7">
-        <v>9.09</v>
-      </c>
-      <c r="L7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>63.45</v>
-      </c>
-      <c r="S7" t="s">
-        <v>91</v>
-      </c>
-      <c r="T7" t="s">
-        <v>89</v>
-      </c>
-      <c r="U7" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>141</v>
-      </c>
-      <c r="X7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z7">
-        <v>177</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8">
-        <v>7252</v>
-      </c>
-      <c r="F8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>94051098</v>
-      </c>
-      <c r="J8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8">
-        <v>5.99</v>
-      </c>
-      <c r="L8" t="s">
-        <v>86</v>
-      </c>
-      <c r="M8" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8" t="s">
-        <v>88</v>
-      </c>
-      <c r="O8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>88.2</v>
-      </c>
-      <c r="S8" t="s">
-        <v>91</v>
-      </c>
-      <c r="T8" t="s">
-        <v>89</v>
-      </c>
-      <c r="U8" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>196</v>
-      </c>
-      <c r="X8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z8">
-        <v>245</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9">
-        <v>7252</v>
-      </c>
-      <c r="F9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>94051098</v>
-      </c>
-      <c r="J9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9">
-        <v>5.99</v>
-      </c>
-      <c r="L9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" t="s">
-        <v>88</v>
-      </c>
-      <c r="O9" t="s">
-        <v>84</v>
-      </c>
-      <c r="P9" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>88.2</v>
-      </c>
-      <c r="S9" t="s">
-        <v>91</v>
-      </c>
-      <c r="T9" t="s">
-        <v>89</v>
-      </c>
-      <c r="U9" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>196</v>
-      </c>
-      <c r="X9" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z9">
-        <v>245</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10">
-        <v>7252</v>
-      </c>
-      <c r="F10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>94051098</v>
-      </c>
-      <c r="J10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10">
-        <v>5.99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>88.2</v>
-      </c>
-      <c r="S10" t="s">
-        <v>91</v>
-      </c>
-      <c r="T10" t="s">
-        <v>89</v>
-      </c>
-      <c r="U10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>196</v>
-      </c>
-      <c r="X10" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z10">
-        <v>245</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
